--- a/census_graphs/sources/DJTechTools - Top 10 selling controllers.xlsx
+++ b/census_graphs/sources/DJTechTools - Top 10 selling controllers.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="2019 case" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
   <si>
     <t>XDJ-RX2</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Numark MixTrack Pro 3</t>
   </si>
   <si>
-    <t>Numark DJ2GO2</t>
-  </si>
-  <si>
     <t>Roland DJ-202</t>
   </si>
   <si>
@@ -124,13 +121,319 @@
   </si>
   <si>
     <t>XDJ-RX1/RX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumptions: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- "Best of 2019 list" is the industry top-10 list, trimmed to the units that DJTT actually sells. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- that list includes 2 units that DJTT doesn't sell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- This is very probably 2 out of 3 of the Numark cheap units: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Numark party mix (#3), Numark MixTrack Pro (#4), Numark DJ2GO2 (#6)</t>
+  </si>
+  <si>
+    <t>Top Selling of 2018:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  https://djtechtools.com/2019/02/10/what-were-the-top-selling-dj-controllers-in-2018/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  https://www.misalestrak.com/categories/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "For this series, instead of using our own sales numbers, we use data from industry reports."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "We don’t carry everything, but instead stock gear that we really trust."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. Pioneer DDJ-SB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2. Pioneer DDJ-SR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Numark Party Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Numark MixTrack Pro 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5. Pioneer DDJ-SX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6. Numark DJ2GO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7. Pioneer DDJ-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8. Pioneer DDJ-400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9. Roland DJ-202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10. Pioneer XDJ-RX2</t>
+  </si>
+  <si>
+    <t>Top Selling of 2019:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  https://store.djtechtools.com/collections/top-selling-dj-controllers-in-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Below are the top selling DJ controllers so far in 2019 based on our most recent information."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I) Pioneer DDJ-400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  II) Traktor Kontrol S4 MK3 + Free Chroma Caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  III) Pioneer DDJ-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IV) Pioneer DDJ-SB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  V) Rane TWELVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VI) Pioneer DDJ-SX3 + Free Chroma Caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VII) Pioneer DDJ-SR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VIII) Pioneer DDJ-SZ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Two of these are very probably still inside the top 10:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Numark Party Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Numark MixTrack Pro 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Numark DJ2GO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  These are definitely outside top 10:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Roland DJ-202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Pioneer XDJ-RX2</t>
+  </si>
+  <si>
+    <t>DJTT-only March 2020 list:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  https://store.djtechtools.com/collections/dj-controllers-players?sort_by=best-selling&amp;grid_list=grid-view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Midi Fighter Twister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Midi Fighter 3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Midi Fighter 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pioneer DDJ-400  (I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Traktor Kontrol S4 MK3 + Free Chroma Caps (II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pioneer DDJ-1000SRT (not top 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer DDJ-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer XDJ-RX2 Flagship All-In-One DJ System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer DDJ-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Traktor Kontrol S2 MK3 + Free Chroma Caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer XDJ-XZ All-In-One DJ System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer DDJ-XP2 DJ Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pioneer DDJ-SB3 (IV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer CDJ-2000NXS2 + DJM-900NXS2 Bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer CDJ-2000NXS2 - DJ TechTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Traktor Kontrol X1 MK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer XDJ-1000MK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Roland DJ-202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Numark PT01 Scratch - DJ TechTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Novation Launchpad X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reloop SPiN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer XDJ-RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Denon DJ Prime 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Traktor Kontrol S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer DDJ-800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reloop RP-8000 MK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer PLX-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Denon Prime GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Roland DJ-707M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer DDJ-XP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Rane TWELVE (V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer XDJ-700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Traktor Kontrol F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Roland DJ-505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pioneer DDJ-SX3 + Free Chroma Caps (VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Roland DJ-808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Traktor Kontrol Z1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Denon SC5000 Prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pioneer DDJ-SR2 (VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Traktor Kontrol S8 + Ean Golden Tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer PLX-500 (Black)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer DJS-1000 Sampler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Denon Prime 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Denon SC6000M Prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Denon SC6000 Prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Denon MCX8000 Standalone DJ Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pioneer DDJ-SZ2 (VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer CDJ-900NXS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pioneer PLX-500 (White)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Denon SC5000M Prime</t>
+  </si>
+  <si>
+    <t>Traktor S4 Mk3</t>
+  </si>
+  <si>
+    <t>DDJ-1000-SRT</t>
+  </si>
+  <si>
+    <t>RANE twelve</t>
+  </si>
+  <si>
+    <t>DDJ-SZ2</t>
+  </si>
+  <si>
+    <t>2019-speculated</t>
+  </si>
+  <si>
+    <t>Numark DJ2GO2 / touch</t>
+  </si>
+  <si>
+    <t>DDJ-1000/SRT</t>
+  </si>
+  <si>
+    <t>DDJ-SZ/SZ2</t>
+  </si>
+  <si>
+    <t>https://store.djtechtools.com/collections/top-selling-dj-controllers-in-2019</t>
+  </si>
+  <si>
+    <t>Numark Party Mix (?)</t>
+  </si>
+  <si>
+    <t>Numark DJ2GO2 (?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,16 +449,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,18 +494,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -223,8 +577,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14161589003148442"/>
-          <c:y val="1.9478938397857318E-2"/>
+          <c:x val="0.29041845240165726"/>
+          <c:y val="2.1706291057085957E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -238,7 +592,7 @@
           <c:yMode val="edge"/>
           <c:x val="4.7885858779847641E-2"/>
           <c:y val="9.7644313817967787E-2"/>
-          <c:w val="0.66384645378307761"/>
+          <c:w val="0.88550035058684395"/>
           <c:h val="0.84135823416521438"/>
         </c:manualLayout>
       </c:layout>
@@ -250,11 +604,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$17</c:f>
+              <c:f>Data!$J$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Numark Mixdeck Express</c:v>
+                  <c:v>DDJ-SZ/SZ2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -262,15 +616,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="10"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="10"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+          </c:dPt>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -279,21 +661,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$17:$K$17</c:f>
+              <c:f>Data!$K$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,28 +690,34 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$18</c:f>
+              <c:f>Data!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Numark Mixtrack Platinum</c:v>
+                  <c:v>RANE twelve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="8"/>
+            <c:size val="10"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -335,18 +726,21 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$18:$K$18</c:f>
+              <c:f>Data!$K$19:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,27 +752,35 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$19</c:f>
+              <c:f>Data!$J$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Numark Mixtrack 3</c:v>
+                  <c:v>Traktor S4 Mk3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -387,21 +789,21 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$19:$K$19</c:f>
+              <c:f>Data!$K$20:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,11 +815,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$20</c:f>
+              <c:f>Data!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Roland DJ-202</c:v>
+                  <c:v>Numark Mixdeck Express</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -427,14 +829,28 @@
             <c:size val="8"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -443,18 +859,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$20:$K$20</c:f>
+              <c:f>Data!$K$21:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,24 +888,38 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$21</c:f>
+              <c:f>Data!$J$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DDJ-400/RB</c:v>
+                  <c:v>Numark Mixtrack Platinum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+          </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -492,21 +928,21 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$21:$K$21</c:f>
+              <c:f>Data!$K$22:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,11 +954,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$22</c:f>
+              <c:f>Data!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XDJ-RX1/RX2</c:v>
+                  <c:v>Numark Mixtrack 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -531,14 +967,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -547,21 +997,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$22:$K$22</c:f>
+              <c:f>Data!$K$23:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,11 +1026,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$23</c:f>
+              <c:f>Data!$J$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DDJ-1000</c:v>
+                  <c:v>Roland DJ-202</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -587,14 +1040,24 @@
             <c:size val="8"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -603,18 +1066,21 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$23:$K$23</c:f>
+              <c:f>Data!$K$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,11 +1092,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$24</c:f>
+              <c:f>Data!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Numark DJ2GO2</c:v>
+                  <c:v>DDJ-400/RB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -640,14 +1106,28 @@
             <c:size val="8"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -656,18 +1136,27 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$24:$K$24</c:f>
+              <c:f>Data!$K$25:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,11 +1168,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$25</c:f>
+              <c:f>Data!$J$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Numark MixTrack Pro 3</c:v>
+                  <c:v>XDJ-RX1/RX2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,14 +1181,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -708,24 +1211,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$25:$K$25</c:f>
+              <c:f>Data!$K$26:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,11 +1240,11 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$26</c:f>
+              <c:f>Data!$J$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DDJ-SX2/SX3</c:v>
+                  <c:v>DDJ-1000/SRT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -750,14 +1253,24 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -766,23 +1279,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$26:$K$26</c:f>
+              <c:f>Data!$K$27:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -795,11 +1308,11 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$27</c:f>
+              <c:f>Data!$J$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Numark Party Mix</c:v>
+                  <c:v>Numark DJ2GO2 (?)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,14 +1321,24 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -824,24 +1347,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$27:$K$27</c:f>
+              <c:f>Data!$K$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,11 +1376,11 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$28</c:f>
+              <c:f>Data!$J$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DDJ-SR1/SR2</c:v>
+                  <c:v>Numark MixTrack Pro 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -866,14 +1389,32 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -882,24 +1423,27 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$28:$K$28</c:f>
+              <c:f>Data!$K$29:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,11 +1455,11 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$29</c:f>
+              <c:f>Data!$J$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DDJ-SB2/SB3</c:v>
+                  <c:v>DDJ-SX2/SX3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -924,14 +1468,32 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$K$16</c:f>
+              <c:f>Data!$K$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -940,16 +1502,267 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$29:$K$29</c:f>
+              <c:f>Data!$K$30:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Numark Party Mix (?)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$K$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$K$31:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DDJ-SR1/SR2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$K$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$K$32:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DDJ-SB2/SB3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$K$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$K$33:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -958,6 +1771,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,11 +1790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209284608"/>
-        <c:axId val="178447488"/>
+        <c:axId val="206347776"/>
+        <c:axId val="206185024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209284608"/>
+        <c:axId val="206347776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +1814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178447488"/>
+        <c:crossAx val="206185024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1006,36 +1822,22 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178447488"/>
+        <c:axId val="206185024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209284608"/>
+        <c:crossAx val="206347776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.73944849881569685"/>
-          <c:y val="3.2190671198970837E-2"/>
-          <c:w val="0.2439217894326402"/>
-          <c:h val="0.90829120246017458"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1052,16 +1854,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>283844</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>70484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1370,464 +2172,1086 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K38"/>
+  <dimension ref="B3:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
       <c r="C6">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D6">
         <v>2017</v>
       </c>
       <c r="E6">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H7" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F6">
+        <v>2019</v>
+      </c>
+      <c r="G6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>14</v>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
-      <c r="E13">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2016</v>
+      </c>
+      <c r="L17">
+        <v>2017</v>
+      </c>
+      <c r="M17">
+        <v>2018</v>
+      </c>
+      <c r="N17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18">
+        <f>C14</f>
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <f>G15</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="J19" t="str">
+        <f>B38</f>
+        <v>RANE twelve</v>
+      </c>
+      <c r="N19">
+        <f>G38</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="J20" t="str">
+        <f>B37</f>
+        <v>Traktor S4 Mk3</v>
+      </c>
+      <c r="N20">
+        <f>G37</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22">
         <v>6</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="G25" s="8">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <f>G17</f>
         <v>1</v>
       </c>
-      <c r="C16">
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
         <v>10</v>
       </c>
-      <c r="I16">
-        <v>2016</v>
-      </c>
-      <c r="J16">
-        <v>2017</v>
-      </c>
-      <c r="K16">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19">
-        <v>9</v>
-      </c>
-      <c r="J19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22">
-        <v>8</v>
-      </c>
-      <c r="K22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>5</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="J27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27">
         <v>7</v>
       </c>
-      <c r="I27">
+      <c r="N27">
+        <f>G24</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <f>G25</f>
         <v>5</v>
       </c>
-      <c r="J27">
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
         <v>4</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="8">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="J30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I29">
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <f>G26</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <f>G29</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <f>G32</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="J33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33">
         <v>1</v>
       </c>
-      <c r="J29">
+      <c r="L33">
         <v>1</v>
       </c>
-      <c r="K29">
+      <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+      <c r="N33">
+        <f>G35</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38">
         <v>5</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="G38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B42" r:id="rId2"/>
+    <hyperlink ref="B44" r:id="rId3"/>
+    <hyperlink ref="B45" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C5:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1837,7 +3261,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
